--- a/derecho-internacional-empresarial/test1.xlsx
+++ b/derecho-internacional-empresarial/test1.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
